--- a/data_gender_studies.xlsx
+++ b/data_gender_studies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariannazavala/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A2015B6-AF84-1042-852B-07173FDA1C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B592EF9C-A324-0148-A3E5-9A616F79A874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{1C96B934-2CBF-2542-B4A3-F75313368D96}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="52">
   <si>
     <t>Argentina </t>
   </si>
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB1C13B-1981-8945-91C3-F18CB8961120}">
   <dimension ref="A1:N274"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="165" workbookViewId="0">
+      <selection activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5992,8 +5992,8 @@
       <c r="B153" s="2">
         <v>2018</v>
       </c>
-      <c r="C153" s="3" t="s">
-        <v>49</v>
+      <c r="C153" s="3">
+        <v>0</v>
       </c>
       <c r="D153" s="2">
         <v>77</v>
